--- a/Documentación/Plantilla product backlog Reppost_6857_7237.xlsx
+++ b/Documentación/Plantilla product backlog Reppost_6857_7237.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar\Desktop\Octavo\Aplicaciones informáticas II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F5F932-F923-4B45-80FB-48305B94C9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C08009E-A1D3-4031-A196-28B96F6489E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>Columna</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Título de la historia alternativo a la descripción, que servirá para identificar más fácilmente la historia sin tener que repetir todo su enunciado. Se puede utilizar por ejemplo el nombre de la funcionalidad o requerimiento que se pretende desarrollar.</t>
   </si>
   <si>
-    <t>H. usuario #1 y H. técnica #1</t>
-  </si>
-  <si>
     <t>Como un usuario nuevo, necesito registrarme con mi email y contraseña, con la finalidad de acceder a la red social</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>planificada</t>
   </si>
   <si>
-    <t>9 días</t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
@@ -125,9 +119,6 @@
     <t>Gestión de perfil de usuarios</t>
   </si>
   <si>
-    <t>10 días</t>
-  </si>
-  <si>
     <t>H. usuario #3 y H. técnica #3</t>
   </si>
   <si>
@@ -156,9 +147,6 @@
   </si>
   <si>
     <t>Generación de imágenes con IA</t>
-  </si>
-  <si>
-    <t>19 días</t>
   </si>
   <si>
     <t>Como un usuario, necesito comentar y reaccionar a publicaciones, con la finalidad de interactuar con los demás usuarios</t>
@@ -180,12 +168,6 @@
     <t>Envío de mensajes privados</t>
   </si>
   <si>
-    <t>6 días</t>
-  </si>
-  <si>
-    <t>18 días</t>
-  </si>
-  <si>
     <t>Como un usuario, necesito verificar mi cuenta por email o teléfono, con la finalidad de mejorar la seguridad de mi cuenta y la confiabilidad dentro de la red social</t>
   </si>
   <si>
@@ -241,6 +223,33 @@
   </si>
   <si>
     <t>Baja</t>
+  </si>
+  <si>
+    <t>16 horas</t>
+  </si>
+  <si>
+    <t>22 horas</t>
+  </si>
+  <si>
+    <t>24 horas</t>
+  </si>
+  <si>
+    <t>20 horas</t>
+  </si>
+  <si>
+    <t>26 horas</t>
+  </si>
+  <si>
+    <t>14 horas</t>
+  </si>
+  <si>
+    <t>18 horas</t>
+  </si>
+  <si>
+    <t>12 horas</t>
+  </si>
+  <si>
+    <t>H. usuario #1, #14 y  H. técnica #1</t>
   </si>
 </sst>
 </file>
@@ -688,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -745,313 +754,313 @@
     </row>
     <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="G7" s="6">
         <v>2</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="G8" s="6">
         <v>3</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="G9" s="6">
         <v>4</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G10" s="6">
         <v>5</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="G11" s="6">
         <v>6</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="G12" s="6">
         <v>7</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="G13" s="6">
         <v>8</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="G14" s="6">
         <v>9</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="G15" s="6">
         <v>10</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="G16" s="6">
         <v>11</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="G17" s="6">
         <v>12</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I17" s="6"/>
     </row>
